--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/85/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/85/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.990990990990991</v>
+        <v>0.05090509050905091</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1633.633633633634</v>
+        <v>548.6348634863486</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009609609609609611</v>
+        <v>0.03744374437443745</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08508508508508508</v>
+        <v>0.4932493249324932</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156.1561561561562</v>
+        <v>1824.612461246125</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.7927927927929</v>
+        <v>264.5364536453645</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>217.2172172172172</v>
+        <v>487.3618361836183</v>
       </c>
     </row>
   </sheetData>
